--- a/DATA/bd-subnacionales.xlsx
+++ b/DATA/bd-subnacionales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29407"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebasteitor\Desktop\REPORTE COMERCIO\DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebasteitor\Desktop\MODELOS ECONOMETRICOS\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3D0F75-6B82-44C1-9375-B252EBA0B789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE34AAF2-FDF6-4B94-A6C4-61D1A1258588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18660" yWindow="0" windowWidth="16170" windowHeight="15585" xr2:uid="{7DE3D96D-6A87-41CE-8431-31A34F3BDAB7}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{7DE3D96D-6A87-41CE-8431-31A34F3BDAB7}"/>
   </bookViews>
   <sheets>
     <sheet name="bdsub" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,6 @@
     <externalReference r:id="rId14"/>
   </externalReferences>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -186,8 +185,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -250,8 +249,8 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -685,10 +684,6 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1011,20 +1006,20 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1044,7 +1039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -1065,7 +1060,7 @@
         <v>136634487</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -1085,7 +1080,7 @@
         <v>147616320</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -1106,7 +1101,7 @@
         <v>157630141</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -1127,7 +1122,7 @@
         <v>166311098</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -1148,7 +1143,7 @@
         <v>172725823</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -1169,7 +1164,7 @@
         <v>178267707</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -1190,7 +1185,7 @@
         <v>183403718</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -1211,7 +1206,7 @@
         <v>187005999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -1232,7 +1227,7 @@
         <v>195032460</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -1253,7 +1248,7 @@
         <v>200723656</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -1274,7 +1269,7 @@
         <v>176752403.56140256</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -1295,7 +1290,7 @@
         <v>202063479</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -1316,7 +1311,7 @@
         <v>208744599</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -1337,7 +1332,7 @@
         <v>206340677</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2024</v>
       </c>
@@ -1358,16 +1353,16 @@
         <v>212497311</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="5"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" s="4"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C23" s="4"/>
     </row>
   </sheetData>
